--- a/EnterprisePortal/TC_Template/Main.rvl.xlsx
+++ b/EnterprisePortal/TC_Template/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="205">
   <si>
     <t>Flow</t>
   </si>
@@ -620,6 +620,15 @@
   </si>
   <si>
     <t>Cleanup</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>ChangeCompany</t>
+  </si>
+  <si>
+    <t>ClickRibbon</t>
   </si>
 </sst>
 </file>
@@ -640,7 +649,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="970">
+  <borders count="977">
     <border>
       <left/>
       <right/>
@@ -1617,11 +1626,18 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="970">
+  <cellXfs count="977">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -2592,6 +2608,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="967" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="968" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="969" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="970" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="971" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="972" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="973" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="974" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="975" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="976" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2601,7 +2624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -2744,270 +2767,210 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="266"/>
+      <c r="A9" s="263" t="s">
+        <v>115</v>
+      </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="267"/>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" t="s">
-        <v>92</v>
-      </c>
+      <c r="A10" s="264"/>
     </row>
     <row r="11">
-      <c r="A11" s="268"/>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s">
-        <v>125</v>
-      </c>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="24"/>
     </row>
     <row r="12">
-      <c r="A12" s="269"/>
+      <c r="A12" s="162"/>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" t="s">
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="263" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="56"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="164"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="243"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="244"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="245"/>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="953"/>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F19" t="s">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G19" t="s">
         <v>7</v>
       </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="264"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="162"/>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="56"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="164"/>
     </row>
     <row r="20">
-      <c r="A20" s="243"/>
+      <c r="A20" s="954"/>
     </row>
     <row r="21">
-      <c r="A21" s="244"/>
+      <c r="A21" s="955"/>
     </row>
     <row r="22">
-      <c r="A22" s="245"/>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>201</v>
-      </c>
+      <c r="A22" s="956"/>
     </row>
     <row r="23">
-      <c r="A23" s="953"/>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
+      <c r="A23" s="957"/>
     </row>
     <row r="24">
-      <c r="A24" s="954"/>
+      <c r="A24" s="958"/>
     </row>
     <row r="25">
-      <c r="A25" s="955"/>
+      <c r="A25" s="959"/>
     </row>
     <row r="26">
-      <c r="A26" s="956"/>
+      <c r="A26" s="960"/>
     </row>
     <row r="27">
-      <c r="A27" s="957"/>
+      <c r="A27" s="961"/>
     </row>
     <row r="28">
-      <c r="A28" s="958"/>
+      <c r="A28" s="962"/>
     </row>
     <row r="29">
-      <c r="A29" s="959"/>
+      <c r="A29" s="963"/>
     </row>
     <row r="30">
-      <c r="A30" s="960"/>
+      <c r="A30" s="964"/>
     </row>
     <row r="31">
-      <c r="A31" s="961"/>
+      <c r="A31" s="965"/>
     </row>
     <row r="32">
-      <c r="A32" s="962"/>
+      <c r="A32" s="966"/>
     </row>
     <row r="33">
-      <c r="A33" s="963"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="964"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="965"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="966"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="967"/>
+      <c r="A33" s="967"/>
     </row>
   </sheetData>
 </worksheet>
